--- a/2.すその方式LINEBotWS1/DialogFlow用Intents雛形.xlsx
+++ b/2.すその方式LINEBotWS1/DialogFlow用Intents雛形.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroyukiichikawa/Documents/work/作業中/DialogFlowのQ&amp;A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroyukiichikawa/Documents/work/裾野方式Bot/LINE用のテスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64DB39F0-D98D-FE43-915D-B41FB6DDA58C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60550185-A77F-0645-BC4A-0DF529E23203}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16440" xr2:uid="{FB296940-42EB-9A49-9630-D2542F392083}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="28300" windowHeight="16440" xr2:uid="{FB296940-42EB-9A49-9630-D2542F392083}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DialogFlow用intents雛形1.10" sheetId="1" r:id="rId1"/>
+    <sheet name="フィールドの説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -64,6 +65,365 @@
     <t>質問言換え3</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE文章</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ブンショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE選択肢タイトル</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE選択肢2</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE選択肢1</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE選択肢3</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE画像（URL）</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE画像選択肢タイトル</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像URL</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン1テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン1ポスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン2テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン2ポスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン3テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン3ポスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さるぼぼはかわいい？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かわいい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Custom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通し番号</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トオシバンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シツモンナイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問するQにあたる部分。１００文字以内。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シツモンスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>答え</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">コタエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問言い換え１</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シツモンイイカエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問言い換え２</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シツモンイイカエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問言い換え３</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シツモンイイカエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトの答え/LINEオンリーの時はLINE文章に入れるといい</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">コタエ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ブンショウニ </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">イレルトイイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Qを別の文言と紐づけたい時に利用する</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">モンゴント </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ヒモヅケタイトキニ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">リヨウスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE選択肢タイトル</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">センタクシタイトル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE選択肢1</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE選択肢2</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE選択肢3</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つの機能</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つの独立した機能</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">１ツノドクリツシタ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルと、最低1つの選択肢で動く機能</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">サイテイ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ウゴクキノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE画像選択肢タイトル</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ガゾウセンタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン１テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン１ポスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン２テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン２ポスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン３テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン３ポスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像と説明付きの選択ボタンの機能</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウト </t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">セツメイツキノ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">センタクボタンノ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンは最低1つあればいい。</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">サイテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポストに書かれた文字で再度質問がかかる</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">カカレタ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">モジデ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">サイド </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シツモンガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE用の文章</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ヨウノ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ブンショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE用の画像</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ヨウノ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数選択肢で答えてもらいたい時に使う</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">フクスウセンタクシデ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">コタエテモライタイトキニ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ツカウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数選択肢で答えてもらいたい時に使う（画像付き）</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">フクスウセンタクシデ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">コタエテモライタイトキニツカウ </t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t xml:space="preserve">ガゾウツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE bot designerなどで作ったJSONを埋め込む</t>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">ウメコム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ホソク </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -72,7 +432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,13 +448,52 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,17 +505,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0794CB4-0495-7A47-81FF-2EA527FA84DB}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -441,9 +862,13 @@
     <col min="3" max="3" width="42.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="9" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="22" max="22" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,6 +886,251 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC84D2B8-8673-084E-8FF0-D4A468B75382}">
+  <dimension ref="B2:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
